--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward471419_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_ynyn_gen_pf_sc_results_0_bus_ward471419_resistance.xlsx
@@ -1109,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507352</v>
+        <v>50.0000028350735</v>
       </c>
       <c r="D2">
-        <v>50.00000283507352</v>
+        <v>50.0000028350735</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="G2">
-        <v>288.6751509631175</v>
+        <v>288.6751509631174</v>
       </c>
       <c r="H2">
         <v>0.01094228901744874</v>
@@ -1130,19 +1130,19 @@
         <v>0.1094384002926759</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714028</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686273</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.693607481936279E-11</v>
+        <v>-8.692805665823456E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1201,22 +1201,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464775</v>
+        <v>0.9526279474464772</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172767</v>
+        <v>0.952627982117277</v>
       </c>
       <c r="Q3">
-        <v>8.709499246996188E-08</v>
+        <v>8.709502357028712E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999128961</v>
+        <v>179.9999999128962</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777265</v>
+        <v>0.9526279330777248</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0.9526279964860256</v>
       </c>
       <c r="Q4">
-        <v>5.191990347282305E-07</v>
+        <v>5.191989968733047E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994807921</v>
+        <v>179.9999994807922</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1319,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027247</v>
+        <v>0.9526279361027252</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610262</v>
+        <v>0.9526279934610267</v>
       </c>
       <c r="Q5">
-        <v>4.282295832224248E-07</v>
+        <v>4.282296849428586E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717614</v>
+        <v>179.9999995717615</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1378,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652239</v>
+        <v>0.9526279315652242</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985258</v>
+        <v>0.9526279979985265</v>
       </c>
       <c r="Q6">
-        <v>5.646834142251723E-07</v>
+        <v>5.646835436960933E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994353075</v>
+        <v>179.9999994353076</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1437,22 +1437,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783973</v>
+        <v>0.9526279277839736</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797757</v>
+        <v>0.9526280017797765</v>
       </c>
       <c r="Q7">
-        <v>6.783949511990454E-07</v>
+        <v>6.783950973450277E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.999999321596</v>
+        <v>179.9999993215961</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277226</v>
+        <v>0.9526279270277237</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360256</v>
+        <v>0.9526280025360264</v>
       </c>
       <c r="Q8">
-        <v>7.011372570601203E-07</v>
+        <v>7.01137407146731E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1555,22 +1555,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152225</v>
+        <v>0.9526279255152232</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485255</v>
+        <v>0.9526280040485263</v>
       </c>
       <c r="Q9">
-        <v>7.466218781298922E-07</v>
+        <v>7.466220242757663E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.999999253369</v>
+        <v>179.9999992533691</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1614,22 +1614,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027221</v>
+        <v>0.9526279240027229</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610256</v>
+        <v>0.9526280055610262</v>
       </c>
       <c r="Q10">
-        <v>7.921064882606811E-07</v>
+        <v>7.921066344064906E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992078844</v>
+        <v>179.9999992078845</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1673,22 +1673,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464722</v>
+        <v>0.9526279232464725</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172756</v>
+        <v>0.9526280063172764</v>
       </c>
       <c r="Q11">
-        <v>8.148487927627507E-07</v>
+        <v>8.148489427637571E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991851421</v>
+        <v>179.9999991851422</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1738,16 +1738,16 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860274</v>
       </c>
       <c r="Q12">
-        <v>1.55321914501209E-07</v>
+        <v>1.553219342545527E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999998446692</v>
+        <v>179.9999998446693</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777268</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860272</v>
       </c>
       <c r="Q13">
-        <v>1.55321866260643E-07</v>
+        <v>1.553219431809613E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446691</v>
+        <v>179.9999998446693</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627942908977</v>
+        <v>0.9526279429089762</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547763</v>
+        <v>0.9526279866547765</v>
       </c>
       <c r="Q14">
-        <v>2.235488939441625E-07</v>
+        <v>2.23548897352094E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999997764422</v>
+        <v>179.9999997764423</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1909,22 +1909,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.952627941396476</v>
+        <v>0.9526279413964761</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672765</v>
+        <v>0.9526279881672768</v>
       </c>
       <c r="Q15">
-        <v>2.69033438867816E-07</v>
+        <v>2.690335102579208E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997309576</v>
+        <v>179.9999997309577</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297772</v>
       </c>
       <c r="Q16">
-        <v>1.325796071910614E-07</v>
+        <v>1.325796269444264E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998674115</v>
+        <v>179.9999998674116</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2027,22 +2027,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339771</v>
+        <v>0.9526279459339769</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297766</v>
+        <v>0.9526279836297772</v>
       </c>
       <c r="Q17">
-        <v>1.325795819212128E-07</v>
+        <v>1.325796473181538E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998674114</v>
+        <v>179.9999998674116</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277268</v>
+        <v>0.9526279391277257</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360259</v>
+        <v>0.9526279904360262</v>
       </c>
       <c r="Q18">
-        <v>3.37260491280485E-07</v>
+        <v>3.372604730294844E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996627306</v>
+        <v>179.9999996627307</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -2145,22 +2145,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027264</v>
+        <v>0.9526279361027252</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610256</v>
+        <v>0.9526279934610257</v>
       </c>
       <c r="Q19">
-        <v>4.282297738859931E-07</v>
+        <v>4.282297368996172E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995717614</v>
+        <v>179.9999995717615</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339765</v>
+        <v>0.9526279338339748</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0.9526279957297755</v>
       </c>
       <c r="Q20">
-        <v>4.964567247556775E-07</v>
+        <v>4.964566936011525E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995035344</v>
+        <v>179.9999995035345</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777265</v>
+        <v>0.9526279330777248</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -2272,13 +2272,13 @@
         <v>0.9526279964860256</v>
       </c>
       <c r="Q21">
-        <v>5.191990385834482E-07</v>
+        <v>5.19199003573684E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994807921</v>
+        <v>179.9999994807922</v>
       </c>
     </row>
   </sheetData>
@@ -2376,19 +2376,19 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686274</v>
+        <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -2642,7 +2642,7 @@
         <v>29.14059842362746</v>
       </c>
       <c r="R6">
-        <v>-91.10214736483698</v>
+        <v>-91.10214736483699</v>
       </c>
       <c r="S6">
         <v>150.3279626332291</v>
@@ -2701,7 +2701,7 @@
         <v>29.14059842563627</v>
       </c>
       <c r="R7">
-        <v>-91.10214735147136</v>
+        <v>-91.10214735147137</v>
       </c>
       <c r="S7">
         <v>150.3279626377062</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.10250319873549</v>
+        <v>1.102503198735491</v>
       </c>
       <c r="O10">
         <v>1.07393623763207</v>
@@ -2934,10 +2934,10 @@
         <v>1.084507398196739</v>
       </c>
       <c r="Q11">
-        <v>29.14059842804684</v>
+        <v>29.14059842804685</v>
       </c>
       <c r="R11">
-        <v>-91.10214733543262</v>
+        <v>-91.10214733543263</v>
       </c>
       <c r="S11">
         <v>150.3279626430788</v>
@@ -3111,7 +3111,7 @@
         <v>1.084507397695035</v>
       </c>
       <c r="Q14">
-        <v>29.14059841760101</v>
+        <v>29.140598417601</v>
       </c>
       <c r="R14">
         <v>-91.10214740493385</v>
@@ -3288,7 +3288,7 @@
         <v>1.084507397617849</v>
       </c>
       <c r="Q17">
-        <v>29.14059841599395</v>
+        <v>29.14059841599396</v>
       </c>
       <c r="R17">
         <v>-91.10214741562633</v>
@@ -3634,13 +3634,13 @@
         <v>0.1094384002926759</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714028</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686273</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -3767,7 +3767,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O4">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P4">
         <v>1.084507397956761</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.102503198809507</v>
+        <v>1.102503198809508</v>
       </c>
       <c r="O8">
         <v>1.073936237650113</v>
@@ -4012,7 +4012,7 @@
         <v>29.14059842594517</v>
       </c>
       <c r="R8">
-        <v>-91.10214734668655</v>
+        <v>-91.10214734668656</v>
       </c>
       <c r="S8">
         <v>150.327962639733</v>
@@ -4071,7 +4071,7 @@
         <v>29.1405984267487</v>
       </c>
       <c r="R9">
-        <v>-91.1021473413403</v>
+        <v>-91.10214734134031</v>
       </c>
       <c r="S9">
         <v>150.3279626415238</v>
@@ -4360,7 +4360,7 @@
         <v>1.073936237887705</v>
       </c>
       <c r="P14">
-        <v>1.084507397705908</v>
+        <v>1.084507397705909</v>
       </c>
       <c r="Q14">
         <v>29.14059841750815</v>
@@ -4369,7 +4369,7 @@
         <v>-91.10214740282214</v>
       </c>
       <c r="S14">
-        <v>150.327962620929</v>
+        <v>150.3279626209291</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4481,10 +4481,10 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q16">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R16">
-        <v>-91.10214741351463</v>
+        <v>-91.10214741351464</v>
       </c>
       <c r="S16">
         <v>150.3279626173473</v>
@@ -4540,10 +4540,10 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R17">
-        <v>-91.10214741351463</v>
+        <v>-91.10214741351464</v>
       </c>
       <c r="S17">
         <v>150.3279626173473</v>
@@ -4599,10 +4599,10 @@
         <v>1.08450739780239</v>
       </c>
       <c r="Q18">
-        <v>29.14059841951697</v>
+        <v>29.14059841951698</v>
       </c>
       <c r="R18">
-        <v>-91.10214738945653</v>
+        <v>-91.10214738945652</v>
       </c>
       <c r="S18">
         <v>150.3279626254062</v>
@@ -4717,7 +4717,7 @@
         <v>1.084507397937464</v>
       </c>
       <c r="Q20">
-        <v>29.14059842232932</v>
+        <v>29.14059842232931</v>
       </c>
       <c r="R20">
         <v>-91.10214737074467</v>
@@ -4865,25 +4865,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -4892,10 +4892,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.8660254037845055</v>
@@ -4907,7 +4907,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720094406120944E-10</v>
+        <v>1.720010192340455E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.866025388164028</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -4966,7 +4966,7 @@
         <v>0.8660254194054648</v>
       </c>
       <c r="Q3">
-        <v>8.659293913594348E-08</v>
+        <v>8.659295491043042E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,16 +5016,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015302</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328150460757E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -5075,22 +5075,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515307</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179626</v>
       </c>
       <c r="Q5">
-        <v>7.415718312251134E-07</v>
+        <v>7.415718063393476E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5134,16 +5134,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265317</v>
+        <v>0.8660253737265311</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429618</v>
+        <v>0.8660254338429614</v>
       </c>
       <c r="Q6">
-        <v>1.003563397001439E-06</v>
+        <v>1.003563348951707E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890329</v>
+        <v>0.8660253702890319</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804603</v>
       </c>
       <c r="Q7">
-        <v>1.221889697911259E-06</v>
+        <v>1.221889622944347E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5252,22 +5252,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015331</v>
+        <v>0.8660253696015321</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679611</v>
+        <v>0.8660254379679602</v>
       </c>
       <c r="Q8">
-        <v>1.265554953710821E-06</v>
+        <v>1.265554866209821E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344369</v>
+        <v>179.9999987344368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5311,22 +5311,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265332</v>
+        <v>0.8660253682265323</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429609</v>
+        <v>0.8660254393429601</v>
       </c>
       <c r="Q9">
-        <v>1.352885475375469E-06</v>
+        <v>1.352885404649249E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471064</v>
+        <v>179.9999986471063</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -5370,22 +5370,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515335</v>
+        <v>0.8660253668515325</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179597</v>
       </c>
       <c r="Q10">
-        <v>1.440215999099244E-06</v>
+        <v>1.440215919891517E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597759</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -5429,22 +5429,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640337</v>
+        <v>0.8660253661640327</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054604</v>
+        <v>0.8660254414054596</v>
       </c>
       <c r="Q11">
-        <v>1.483881255568643E-06</v>
+        <v>1.483881167879429E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161107</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0.8660254214679646</v>
       </c>
       <c r="Q12">
-        <v>2.175887004705142E-07</v>
+        <v>2.175887181878478E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0.8660254214679644</v>
       </c>
       <c r="Q13">
-        <v>2.175886925145264E-07</v>
+        <v>2.175887208046185E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390287</v>
+        <v>0.8660253840390284</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -5615,13 +5615,13 @@
         <v>0.8660254235304639</v>
       </c>
       <c r="Q14">
-        <v>3.485844602277924E-07</v>
+        <v>3.485844784421213E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640294</v>
+        <v>0.8660253826640291</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.35915007230062E-07</v>
+        <v>4.359150031061384E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5724,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -5733,7 +5733,7 @@
         <v>0.8660254207804646</v>
       </c>
       <c r="Q16">
-        <v>1.739234460116232E-07</v>
+        <v>1.739234637289656E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q17">
-        <v>1.739234363282679E-07</v>
+        <v>1.73923470515437E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015292</v>
+        <v>0.8660253806015289</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -5851,7 +5851,7 @@
         <v>0.866025426967963</v>
       </c>
       <c r="Q18">
-        <v>5.669107169198445E-07</v>
+        <v>5.669107653418267E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5901,22 +5901,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179626</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q19">
-        <v>7.415717199790276E-07</v>
+        <v>7.415718018979019E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584198</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890303</v>
+        <v>0.86602537578903</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804617</v>
+        <v>0.8660254317804614</v>
       </c>
       <c r="Q20">
-        <v>8.725674687538727E-07</v>
+        <v>8.725675634898882E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6019,22 +6019,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015302</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679615</v>
       </c>
       <c r="Q21">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328064225728E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -6117,25 +6117,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="D2">
-        <v>40.00000140211802</v>
+        <v>40.000001402118</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="G2">
-        <v>230.9401157709825</v>
+        <v>230.9401157709824</v>
       </c>
       <c r="H2">
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -6144,10 +6144,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.8660254037845055</v>
@@ -6159,7 +6159,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720094406120944E-10</v>
+        <v>1.720010192340455E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.866025388164028</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>0.8660254194054648</v>
       </c>
       <c r="Q3">
-        <v>8.659293913594348E-08</v>
+        <v>8.659295491043042E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,16 +6268,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015302</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679615</v>
       </c>
       <c r="Q4">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328150460757E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6327,22 +6327,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515307</v>
+        <v>0.8660253778515302</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179626</v>
       </c>
       <c r="Q5">
-        <v>7.415718312251134E-07</v>
+        <v>7.415718063393476E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584198</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6386,16 +6386,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265317</v>
+        <v>0.8660253737265311</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429618</v>
+        <v>0.8660254338429614</v>
       </c>
       <c r="Q6">
-        <v>1.003563397001439E-06</v>
+        <v>1.003563348951707E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6445,22 +6445,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890329</v>
+        <v>0.8660253702890319</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804611</v>
+        <v>0.8660254372804603</v>
       </c>
       <c r="Q7">
-        <v>1.221889697911259E-06</v>
+        <v>1.221889622944347E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781021</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6504,22 +6504,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015331</v>
+        <v>0.8660253696015321</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679611</v>
+        <v>0.8660254379679602</v>
       </c>
       <c r="Q8">
-        <v>1.265554953710821E-06</v>
+        <v>1.265554866209821E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344369</v>
+        <v>179.9999987344368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6563,22 +6563,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265332</v>
+        <v>0.8660253682265323</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429609</v>
+        <v>0.8660254393429601</v>
       </c>
       <c r="Q9">
-        <v>1.352885475375469E-06</v>
+        <v>1.352885404649249E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999986471064</v>
+        <v>179.9999986471063</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6622,22 +6622,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8660253668515335</v>
+        <v>0.8660253668515325</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179605</v>
+        <v>0.8660254407179597</v>
       </c>
       <c r="Q10">
-        <v>1.440215999099244E-06</v>
+        <v>1.440215919891517E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999985597759</v>
+        <v>179.9999985597757</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6681,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640337</v>
+        <v>0.8660253661640327</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054604</v>
+        <v>0.8660254414054596</v>
       </c>
       <c r="Q11">
-        <v>1.483881255568643E-06</v>
+        <v>1.483881167879429E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161107</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>0.8660254214679646</v>
       </c>
       <c r="Q12">
-        <v>2.175887004705142E-07</v>
+        <v>2.175887181878478E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015286</v>
+        <v>0.8660253861015282</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -6808,7 +6808,7 @@
         <v>0.8660254214679644</v>
       </c>
       <c r="Q13">
-        <v>2.175886925145264E-07</v>
+        <v>2.175887208046185E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390287</v>
+        <v>0.8660253840390284</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -6867,13 +6867,13 @@
         <v>0.8660254235304639</v>
       </c>
       <c r="Q14">
-        <v>3.485844602277924E-07</v>
+        <v>3.485844784421213E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640294</v>
+        <v>0.8660253826640291</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -6926,7 +6926,7 @@
         <v>0.8660254249054637</v>
       </c>
       <c r="Q15">
-        <v>4.35915007230062E-07</v>
+        <v>4.359150031061384E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -6985,7 +6985,7 @@
         <v>0.8660254207804646</v>
       </c>
       <c r="Q16">
-        <v>1.739234460116232E-07</v>
+        <v>1.739234637289656E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890285</v>
+        <v>0.8660253867890282</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q17">
-        <v>1.739234363282679E-07</v>
+        <v>1.73923470515437E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015292</v>
+        <v>0.8660253806015289</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0.866025426967963</v>
       </c>
       <c r="Q18">
-        <v>5.669107169198445E-07</v>
+        <v>5.669107653418267E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.8660253778515294</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179626</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q19">
-        <v>7.415717199790276E-07</v>
+        <v>7.415718018979019E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584197</v>
+        <v>179.9999992584198</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7212,16 +7212,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890303</v>
+        <v>0.86602537578903</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804617</v>
+        <v>0.8660254317804614</v>
       </c>
       <c r="Q20">
-        <v>8.725674687538727E-07</v>
+        <v>8.725675634898882E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -7271,22 +7271,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015304</v>
+        <v>0.8660253751015302</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679617</v>
+        <v>0.8660254324679615</v>
       </c>
       <c r="Q21">
-        <v>9.162327201680452E-07</v>
+        <v>9.162328064225728E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837587</v>
+        <v>179.9999990837588</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +7387,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -7396,10 +7396,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -7467,7 +7467,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081649</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -7526,7 +7526,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -7585,7 +7585,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -7641,7 +7641,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -7703,13 +7703,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
         <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7821,7 +7821,7 @@
         <v>0.9731342573208043</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779517</v>
+        <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -7936,13 +7936,13 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679295</v>
+        <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -8004,7 +8004,7 @@
         <v>29.02648251913994</v>
       </c>
       <c r="R12">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S12">
         <v>150.3745452886059</v>
@@ -8178,7 +8178,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -8237,7 +8237,7 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
         <v>-91.24839365204943</v>
@@ -8296,7 +8296,7 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
         <v>-91.24839365204943</v>
@@ -8411,7 +8411,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -8467,7 +8467,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636864</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -8529,7 +8529,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -8639,7 +8639,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -8648,10 +8648,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>1.002551066141495</v>
@@ -8719,7 +8719,7 @@
         <v>0.9731342571702207</v>
       </c>
       <c r="P3">
-        <v>0.9840663098081651</v>
+        <v>0.9840663098081649</v>
       </c>
       <c r="Q3">
         <v>29.02648251593023</v>
@@ -8778,7 +8778,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P4">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q4">
         <v>29.02648253625838</v>
@@ -8837,7 +8837,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P5">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q5">
         <v>29.02648253197877</v>
@@ -8893,7 +8893,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -8955,13 +8955,13 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879737</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
         <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9073,7 +9073,7 @@
         <v>0.9731342573208043</v>
       </c>
       <c r="P9">
-        <v>0.9840663106779517</v>
+        <v>0.9840663106779516</v>
       </c>
       <c r="Q9">
         <v>29.02648254695741</v>
@@ -9188,13 +9188,13 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679295</v>
+        <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016712</v>
+        <v>29.02648255016713</v>
       </c>
       <c r="R11">
         <v>-91.24839353657991</v>
@@ -9256,7 +9256,7 @@
         <v>29.02648251913994</v>
       </c>
       <c r="R12">
-        <v>-91.24839364820045</v>
+        <v>-91.24839364820043</v>
       </c>
       <c r="S12">
         <v>150.3745452886059</v>
@@ -9430,7 +9430,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -9489,7 +9489,7 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R16">
         <v>-91.24839365204943</v>
@@ -9548,7 +9548,7 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
         <v>-91.24839365204943</v>
@@ -9663,7 +9663,7 @@
         <v>0.9731342572481088</v>
       </c>
       <c r="P19">
-        <v>0.9840663102580548</v>
+        <v>0.9840663102580546</v>
       </c>
       <c r="Q19">
         <v>29.02648253197877</v>
@@ -9719,7 +9719,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636864</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -9781,7 +9781,7 @@
         <v>0.9731342572688789</v>
       </c>
       <c r="P21">
-        <v>0.9840663103780253</v>
+        <v>0.9840663103780251</v>
       </c>
       <c r="Q21">
         <v>29.02648253625838</v>
@@ -9909,7 +9909,7 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350725630152825</v>
+        <v>0.6350725630152823</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
@@ -9918,7 +9918,7 @@
         <v>0.6350674081887472</v>
       </c>
       <c r="Q2">
-        <v>60.0025289775436</v>
+        <v>60.00252897754361</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
@@ -9971,22 +9971,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725803613437</v>
+        <v>0.6350725803613427</v>
       </c>
       <c r="O3">
         <v>1.100000023884846</v>
       </c>
       <c r="P3">
-        <v>0.6350673924404842</v>
+        <v>0.6350673924404837</v>
       </c>
       <c r="Q3">
-        <v>60.00252971452033</v>
+        <v>60.00252971452041</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>119.9977404895151</v>
+        <v>119.997740489515</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350725988789422</v>
+        <v>0.6350725988789411</v>
       </c>
       <c r="O4">
         <v>1.100000023884847</v>
       </c>
       <c r="P4">
-        <v>0.6350673822186061</v>
+        <v>0.6350673822186045</v>
       </c>
       <c r="Q4">
-        <v>60.00252981471544</v>
+        <v>60.00252981471573</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S4">
-        <v>119.997741886172</v>
+        <v>119.9977418861718</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725949804997</v>
+        <v>0.6350725949804987</v>
       </c>
       <c r="O5">
         <v>1.100000023884847</v>
       </c>
       <c r="P5">
-        <v>0.6350673843705804</v>
+        <v>0.6350673843705797</v>
       </c>
       <c r="Q5">
-        <v>60.00252979362192</v>
+        <v>60.00252979362209</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S5">
-        <v>119.9977415921389</v>
+        <v>119.9977415921388</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726008281623</v>
+        <v>0.6350726008281612</v>
       </c>
       <c r="O6">
-        <v>1.100000023884847</v>
+        <v>1.100000023884848</v>
       </c>
       <c r="P6">
-        <v>0.6350673811426188</v>
+        <v>0.6350673811426177</v>
       </c>
       <c r="Q6">
-        <v>60.00252982526255</v>
+        <v>60.00252982526276</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S6">
-        <v>119.9977420331885</v>
+        <v>119.9977420331884</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,22 +10219,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726057012144</v>
+        <v>0.6350726057012133</v>
       </c>
       <c r="O7">
         <v>1.100000023884848</v>
       </c>
       <c r="P7">
-        <v>0.6350673784526508</v>
+        <v>0.6350673784526494</v>
       </c>
       <c r="Q7">
-        <v>60.00252985162975</v>
+        <v>60.00252985163002</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999564</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S7">
-        <v>119.9977424007298</v>
+        <v>119.9977424007296</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -10281,22 +10281,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350726066758249</v>
+        <v>0.6350726066758234</v>
       </c>
       <c r="O8">
         <v>1.100000023884848</v>
       </c>
       <c r="P8">
-        <v>0.6350673779146569</v>
+        <v>0.6350673779146555</v>
       </c>
       <c r="Q8">
-        <v>60.0025298569032</v>
+        <v>60.00252985690349</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999564</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S8">
-        <v>119.997742474238</v>
+        <v>119.9977424742379</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -10343,22 +10343,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726086250453</v>
+        <v>0.6350726086250442</v>
       </c>
       <c r="O9">
         <v>1.100000023884848</v>
       </c>
       <c r="P9">
-        <v>0.63506737683867</v>
+        <v>0.6350673768386685</v>
       </c>
       <c r="Q9">
-        <v>60.0025298674501</v>
+        <v>60.00252986745038</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S9">
-        <v>119.9977426212545</v>
+        <v>119.9977426212544</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.635072610574266</v>
+        <v>0.6350726105742647</v>
       </c>
       <c r="O10">
         <v>1.100000023884848</v>
       </c>
       <c r="P10">
-        <v>0.6350673757626826</v>
+        <v>0.6350673757626812</v>
       </c>
       <c r="Q10">
-        <v>60.00252987799702</v>
+        <v>60.00252987799729</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999561</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S10">
-        <v>119.997742768271</v>
+        <v>119.9977427682709</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350726115488763</v>
+        <v>0.6350726115488751</v>
       </c>
       <c r="O11">
         <v>1.100000023884848</v>
       </c>
       <c r="P11">
-        <v>0.6350673752246887</v>
+        <v>0.6350673752246873</v>
       </c>
       <c r="Q11">
-        <v>60.00252988327051</v>
+        <v>60.00252988327077</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999559</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S11">
-        <v>119.9977428417793</v>
+        <v>119.9977428417791</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,22 +10529,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725832851748</v>
+        <v>0.6350725832851737</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
       </c>
       <c r="P12">
-        <v>0.6350673908265025</v>
+        <v>0.6350673908265024</v>
       </c>
       <c r="Q12">
-        <v>60.00252973034071</v>
+        <v>60.00252973034082</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S12">
-        <v>119.9977407100398</v>
+        <v>119.9977407100397</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -10591,22 +10591,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725832851747</v>
+        <v>0.6350725832851737</v>
       </c>
       <c r="O13">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P13">
-        <v>0.6350673908265029</v>
+        <v>0.6350673908265024</v>
       </c>
       <c r="Q13">
-        <v>60.00252973034075</v>
+        <v>60.0025297303408</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S13">
-        <v>119.9977407100398</v>
+        <v>119.9977407100397</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725862090062</v>
+        <v>0.6350725862090051</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
       </c>
       <c r="P14">
-        <v>0.6350673892125229</v>
+        <v>0.6350673892125219</v>
       </c>
       <c r="Q14">
-        <v>60.00252974616085</v>
+        <v>60.00252974616102</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S14">
-        <v>119.9977409305646</v>
+        <v>119.9977409305645</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725881582269</v>
+        <v>0.635072588158226</v>
       </c>
       <c r="O15">
         <v>1.100000023884847</v>
       </c>
       <c r="P15">
-        <v>0.6350673881365356</v>
+        <v>0.635067388136535</v>
       </c>
       <c r="Q15">
-        <v>60.00252975670783</v>
+        <v>60.00252975670796</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
       </c>
       <c r="S15">
-        <v>119.9977410775811</v>
+        <v>119.997741077581</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -10777,22 +10777,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725823105644</v>
+        <v>0.6350725823105632</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
       </c>
       <c r="P16">
-        <v>0.6350673913644965</v>
+        <v>0.6350673913644963</v>
       </c>
       <c r="Q16">
-        <v>60.00252972506726</v>
+        <v>60.00252972506734</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S16">
-        <v>119.9977406365315</v>
+        <v>119.9977406365314</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -10839,22 +10839,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725823105644</v>
+        <v>0.6350725823105633</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
       </c>
       <c r="P17">
-        <v>0.6350673913644967</v>
+        <v>0.6350673913644963</v>
       </c>
       <c r="Q17">
-        <v>60.00252972506726</v>
+        <v>60.00252972506731</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>119.9977406365316</v>
+        <v>119.9977406365315</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725910820585</v>
+        <v>0.6350725910820574</v>
       </c>
       <c r="O18">
         <v>1.100000023884847</v>
       </c>
       <c r="P18">
-        <v>0.6350673865225552</v>
+        <v>0.6350673865225538</v>
       </c>
       <c r="Q18">
-        <v>60.00252977252797</v>
+        <v>60.00252977252821</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S18">
-        <v>119.9977412981059</v>
+        <v>119.9977412981057</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725949805003</v>
+        <v>0.6350725949804993</v>
       </c>
       <c r="O19">
         <v>1.100000023884847</v>
       </c>
       <c r="P19">
-        <v>0.6350673843705809</v>
+        <v>0.6350673843705792</v>
       </c>
       <c r="Q19">
-        <v>60.00252979362169</v>
+        <v>60.00252979362196</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S19">
-        <v>119.9977415921389</v>
+        <v>119.9977415921388</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350725979043318</v>
+        <v>0.6350725979043307</v>
       </c>
       <c r="O20">
         <v>1.100000023884847</v>
       </c>
       <c r="P20">
-        <v>0.6350673827565999</v>
+        <v>0.6350673827565981</v>
       </c>
       <c r="Q20">
-        <v>60.00252980944199</v>
+        <v>60.00252980944227</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S20">
-        <v>119.9977418126637</v>
+        <v>119.9977418126635</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350725988789422</v>
+        <v>0.635072598878941</v>
       </c>
       <c r="O21">
         <v>1.100000023884847</v>
       </c>
       <c r="P21">
-        <v>0.6350673822186061</v>
+        <v>0.6350673822186045</v>
       </c>
       <c r="Q21">
-        <v>60.00252981471544</v>
+        <v>60.00252981471573</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S21">
-        <v>119.997741886172</v>
+        <v>119.9977418861718</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73781549470328</v>
+        <v>57.73781549470331</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>333.3494331828789</v>
+        <v>333.349433182879</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11224,16 +11224,16 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350725641468637</v>
+        <v>0.6350725641468636</v>
       </c>
       <c r="O2">
         <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6350674184895969</v>
+        <v>0.6350674184895968</v>
       </c>
       <c r="Q2">
-        <v>60.00252784543473</v>
+        <v>60.00252784543476</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350725823189278</v>
+        <v>0.6350725823189269</v>
       </c>
       <c r="O3">
         <v>1.100000023884846</v>
       </c>
       <c r="P3">
-        <v>0.6350674019914165</v>
+        <v>0.635067401991416</v>
       </c>
       <c r="Q3">
-        <v>60.00252861750562</v>
+        <v>60.00252861750568</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>119.9977411910505</v>
+        <v>119.9977411910504</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,19 +11348,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350726008365258</v>
+        <v>0.6350726008365254</v>
       </c>
       <c r="O4">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P4">
-        <v>0.6350673917695387</v>
+        <v>0.6350673917695385</v>
       </c>
       <c r="Q4">
-        <v>60.00252871770076</v>
+        <v>60.0025287177009</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S4">
         <v>119.9977425877073</v>
@@ -11410,22 +11410,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350725969380836</v>
+        <v>0.6350725969380827</v>
       </c>
       <c r="O5">
         <v>1.100000023884847</v>
       </c>
       <c r="P5">
-        <v>0.6350673939215131</v>
+        <v>0.635067393921512</v>
       </c>
       <c r="Q5">
-        <v>60.00252869660722</v>
+        <v>60.00252869660741</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S5">
-        <v>119.9977422936743</v>
+        <v>119.9977422936742</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -11472,22 +11472,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350726027857458</v>
+        <v>0.6350726027857451</v>
       </c>
       <c r="O6">
         <v>1.100000023884847</v>
       </c>
       <c r="P6">
-        <v>0.6350673906935516</v>
+        <v>0.6350673906935502</v>
       </c>
       <c r="Q6">
-        <v>60.0025287282479</v>
+        <v>60.00252872824811</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S6">
-        <v>119.9977427347238</v>
+        <v>119.9977427347237</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -11534,22 +11534,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350726076587977</v>
+        <v>0.6350726076587968</v>
       </c>
       <c r="O7">
         <v>1.100000023884847</v>
       </c>
       <c r="P7">
-        <v>0.6350673880035835</v>
+        <v>0.635067388003582</v>
       </c>
       <c r="Q7">
-        <v>60.00252875461512</v>
+        <v>60.00252875461538</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S7">
-        <v>119.9977431022651</v>
+        <v>119.997743102265</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -11596,22 +11596,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350726086334083</v>
+        <v>0.6350726086334072</v>
       </c>
       <c r="O8">
         <v>1.100000023884847</v>
       </c>
       <c r="P8">
-        <v>0.6350673874655897</v>
+        <v>0.635067387465588</v>
       </c>
       <c r="Q8">
-        <v>60.00252875988857</v>
+        <v>60.00252875988885</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999562</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S8">
-        <v>119.9977431757734</v>
+        <v>119.9977431757732</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -11658,22 +11658,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350726105826286</v>
+        <v>0.6350726105826278</v>
       </c>
       <c r="O9">
         <v>1.100000023884848</v>
       </c>
       <c r="P9">
-        <v>0.6350673863896027</v>
+        <v>0.6350673863896011</v>
       </c>
       <c r="Q9">
-        <v>60.00252877043548</v>
+        <v>60.00252877043574</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999559</v>
+        <v>-89.99999999999558</v>
       </c>
       <c r="S9">
-        <v>119.9977433227899</v>
+        <v>119.9977433227897</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -11720,22 +11720,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350726125318494</v>
+        <v>0.6350726125318482</v>
       </c>
       <c r="O10">
         <v>1.100000023884848</v>
       </c>
       <c r="P10">
-        <v>0.6350673853136153</v>
+        <v>0.6350673853136138</v>
       </c>
       <c r="Q10">
-        <v>60.00252878098242</v>
+        <v>60.00252878098267</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999557</v>
       </c>
       <c r="S10">
-        <v>119.9977434698064</v>
+        <v>119.9977434698062</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350726135064596</v>
+        <v>0.6350726135064586</v>
       </c>
       <c r="O11">
         <v>1.100000023884848</v>
       </c>
       <c r="P11">
-        <v>0.6350673847756214</v>
+        <v>0.6350673847756199</v>
       </c>
       <c r="Q11">
-        <v>60.00252878625589</v>
+        <v>60.00252878625614</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999558</v>
+        <v>-89.99999999999555</v>
       </c>
       <c r="S11">
-        <v>119.9977435433146</v>
+        <v>119.9977435433145</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,22 +11844,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350725852427589</v>
+        <v>0.635072585242758</v>
       </c>
       <c r="O12">
         <v>1.100000023884846</v>
       </c>
       <c r="P12">
-        <v>0.6350674003774349</v>
+        <v>0.6350674003774346</v>
       </c>
       <c r="Q12">
-        <v>60.00252863332602</v>
+        <v>60.00252863332611</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S12">
-        <v>119.9977414115752</v>
+        <v>119.9977414115751</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -11906,22 +11906,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350725852427589</v>
+        <v>0.635072585242758</v>
       </c>
       <c r="O13">
         <v>1.100000023884846</v>
       </c>
       <c r="P13">
-        <v>0.6350674003774351</v>
+        <v>0.6350674003774347</v>
       </c>
       <c r="Q13">
-        <v>60.00252863332604</v>
+        <v>60.00252863332608</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S13">
-        <v>119.9977414115752</v>
+        <v>119.9977414115751</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -11968,19 +11968,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350725881665903</v>
+        <v>0.6350725881665894</v>
       </c>
       <c r="O14">
         <v>1.100000023884846</v>
       </c>
       <c r="P14">
-        <v>0.6350673987634553</v>
+        <v>0.6350673987634551</v>
       </c>
       <c r="Q14">
-        <v>60.00252864914616</v>
+        <v>60.00252864914626</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
         <v>119.9977416321</v>
@@ -12030,22 +12030,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350725901158109</v>
+        <v>0.6350725901158101</v>
       </c>
       <c r="O15">
         <v>1.100000023884846</v>
       </c>
       <c r="P15">
-        <v>0.6350673976874679</v>
+        <v>0.6350673976874673</v>
       </c>
       <c r="Q15">
-        <v>60.00252865969315</v>
+        <v>60.00252865969326</v>
       </c>
       <c r="R15">
         <v>-89.99999999999569</v>
       </c>
       <c r="S15">
-        <v>119.9977417791165</v>
+        <v>119.9977417791164</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -12092,19 +12092,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350725842681485</v>
+        <v>0.6350725842681474</v>
       </c>
       <c r="O16">
         <v>1.100000023884846</v>
       </c>
       <c r="P16">
-        <v>0.6350674009154289</v>
+        <v>0.6350674009154283</v>
       </c>
       <c r="Q16">
-        <v>60.00252862805256</v>
+        <v>60.00252862805263</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S16">
         <v>119.9977413380669</v>
@@ -12154,22 +12154,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350725842681485</v>
+        <v>0.6350725842681476</v>
       </c>
       <c r="O17">
         <v>1.100000023884846</v>
       </c>
       <c r="P17">
-        <v>0.6350674009154291</v>
+        <v>0.6350674009154285</v>
       </c>
       <c r="Q17">
-        <v>60.00252862805256</v>
+        <v>60.00252862805261</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
-        <v>119.997741338067</v>
+        <v>119.9977413380669</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -12216,19 +12216,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350725930396425</v>
+        <v>0.6350725930396416</v>
       </c>
       <c r="O18">
         <v>1.100000023884846</v>
       </c>
       <c r="P18">
-        <v>0.6350673960734878</v>
+        <v>0.6350673960734874</v>
       </c>
       <c r="Q18">
-        <v>60.00252867551329</v>
+        <v>60.0025286755134</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999578</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S18">
         <v>119.9977419996413</v>
@@ -12278,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350725969380843</v>
+        <v>0.6350725969380834</v>
       </c>
       <c r="O19">
         <v>1.100000023884846</v>
@@ -12287,10 +12287,10 @@
         <v>0.6350673939215133</v>
       </c>
       <c r="Q19">
-        <v>60.00252869660701</v>
+        <v>60.00252869660712</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999579</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S19">
         <v>119.9977422936743</v>
@@ -12340,19 +12340,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350725998619156</v>
+        <v>0.6350725998619148</v>
       </c>
       <c r="O20">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P20">
         <v>0.6350673923075324</v>
       </c>
       <c r="Q20">
-        <v>60.00252871242731</v>
+        <v>60.00252871242744</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S20">
         <v>119.9977425141991</v>
@@ -12402,19 +12402,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350726008365258</v>
+        <v>0.6350726008365252</v>
       </c>
       <c r="O21">
-        <v>1.100000023884846</v>
+        <v>1.100000023884847</v>
       </c>
       <c r="P21">
         <v>0.6350673917695387</v>
       </c>
       <c r="Q21">
-        <v>60.00252871770076</v>
+        <v>60.0025287177009</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S21">
         <v>119.9977425877073</v>
@@ -12613,7 +12613,7 @@
         <v>29.92212935973331</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.5246562999889</v>
@@ -12669,13 +12669,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P4">
-        <v>1.096496879204243</v>
+        <v>1.096496879204242</v>
       </c>
       <c r="Q4">
         <v>29.92212937400229</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S4">
         <v>149.5246563109484</v>
@@ -13171,7 +13171,7 @@
         <v>29.92212936198631</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S12">
         <v>149.5246563017193</v>
@@ -13233,7 +13233,7 @@
         <v>29.92212936198631</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246563017193</v>
@@ -13295,7 +13295,7 @@
         <v>29.9221293642393</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246563034498</v>
@@ -13419,7 +13419,7 @@
         <v>29.92212936123531</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S16">
         <v>149.5246563011425</v>
@@ -13481,7 +13481,7 @@
         <v>29.92212936123531</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S17">
         <v>149.5246563011425</v>
@@ -13605,7 +13605,7 @@
         <v>29.9221293709983</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S19">
         <v>149.5246563086411</v>
@@ -13664,10 +13664,10 @@
         <v>1.096496879214408</v>
       </c>
       <c r="Q20">
-        <v>29.9221293732513</v>
+        <v>29.92212937325129</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S20">
         <v>149.5246563103715</v>
@@ -13723,13 +13723,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P21">
-        <v>1.096496879204243</v>
+        <v>1.096496879204242</v>
       </c>
       <c r="Q21">
         <v>29.92212937400229</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S21">
         <v>149.5246563109484</v>
@@ -14486,7 +14486,7 @@
         <v>29.92212937479822</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246563114193</v>
@@ -14917,7 +14917,7 @@
         <v>1.096496879059789</v>
       </c>
       <c r="Q11">
-        <v>29.9221293845612</v>
+        <v>29.92212938456121</v>
       </c>
       <c r="R11">
         <v>-89.99999999999635</v>
@@ -15354,7 +15354,7 @@
         <v>29.92212936879023</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S18">
         <v>149.5246563068048</v>
@@ -15475,10 +15475,10 @@
         <v>1.096496879202108</v>
       </c>
       <c r="Q20">
-        <v>29.92212937404721</v>
+        <v>29.92212937404722</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.5246563108425</v>
@@ -15540,7 +15540,7 @@
         <v>29.92212937479822</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246563114193</v>
@@ -15650,16 +15650,16 @@
         <v>0.01243393518288672</v>
       </c>
       <c r="I2">
-        <v>0.12435938670569</v>
+        <v>0.1243593867056899</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526076</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -15683,7 +15683,7 @@
         <v>119.997431871703</v>
       </c>
       <c r="T2">
-        <v>46.19055539395241</v>
+        <v>46.19055539395242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -15727,22 +15727,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773371184169133</v>
+        <v>0.5773371184169132</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962933</v>
+        <v>0.999999999996294</v>
       </c>
       <c r="P3">
-        <v>0.5773317697850939</v>
+        <v>0.5773317697850945</v>
       </c>
       <c r="Q3">
         <v>60.00287353246908</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S3">
-        <v>119.9974328963524</v>
+        <v>119.9974328963523</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,22 +15789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202205</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P4">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614565</v>
       </c>
       <c r="Q4">
-        <v>60.00287303628517</v>
+        <v>60.00287303628518</v>
       </c>
       <c r="R4">
         <v>-89.99999999999592</v>
       </c>
       <c r="S4">
-        <v>119.9974348893884</v>
+        <v>119.9974348893883</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -15851,19 +15851,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458409</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P5">
-        <v>0.5773317651874855</v>
+        <v>0.5773317651874859</v>
       </c>
       <c r="Q5">
         <v>60.00287314074482</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
         <v>119.9974344698019</v>
@@ -15913,19 +15913,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371408574111</v>
+        <v>0.5773371408574119</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P6">
-        <v>0.5773317633484423</v>
+        <v>0.5773317633484427</v>
       </c>
       <c r="Q6">
-        <v>60.00287298405514</v>
+        <v>60.0028729840551</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999595</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S6">
         <v>119.9974350991817</v>
@@ -15975,19 +15975,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773371462003867</v>
+        <v>0.5773371462003878</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P7">
-        <v>0.5773317618159062</v>
+        <v>0.5773317618159067</v>
       </c>
       <c r="Q7">
-        <v>60.00287285348041</v>
+        <v>60.00287285348035</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S7">
         <v>119.9974356236649</v>
@@ -16037,19 +16037,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773371472689818</v>
+        <v>0.5773371472689829</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P8">
-        <v>0.5773317615093989</v>
+        <v>0.5773317615093997</v>
       </c>
       <c r="Q8">
-        <v>60.00287282736547</v>
+        <v>60.00287282736539</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S8">
         <v>119.9974357285615</v>
@@ -16099,19 +16099,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371494061721</v>
+        <v>0.5773371494061732</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P9">
-        <v>0.5773317608963846</v>
+        <v>0.5773317608963853</v>
       </c>
       <c r="Q9">
-        <v>60.00287277513556</v>
+        <v>60.00287277513549</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S9">
         <v>119.9974359383548</v>
@@ -16161,19 +16161,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371515433625</v>
+        <v>0.5773371515433636</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P10">
-        <v>0.5773317602833702</v>
+        <v>0.577331760283371</v>
       </c>
       <c r="Q10">
-        <v>60.00287272290565</v>
+        <v>60.00287272290558</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S10">
         <v>119.9974361481481</v>
@@ -16223,19 +16223,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371526119577</v>
+        <v>0.5773371526119587</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P11">
-        <v>0.577331759976863</v>
+        <v>0.5773317599768638</v>
       </c>
       <c r="Q11">
-        <v>60.0028726967907</v>
+        <v>60.00287269679063</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999604</v>
       </c>
       <c r="S11">
         <v>119.9974362530447</v>
@@ -16285,22 +16285,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577337121622699</v>
+        <v>0.5773371216226987</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P12">
-        <v>0.5773317688655721</v>
+        <v>0.5773317688655726</v>
       </c>
       <c r="Q12">
         <v>60.00287345412424</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -16347,22 +16347,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371216226989</v>
+        <v>0.5773371216226988</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962932</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P13">
-        <v>0.577331768865572</v>
+        <v>0.5773317688655727</v>
       </c>
       <c r="Q13">
         <v>60.00287345412422</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S13">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -16409,16 +16409,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773371248284841</v>
+        <v>0.577337124828484</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P14">
-        <v>0.5773317679460502</v>
+        <v>0.5773317679460507</v>
       </c>
       <c r="Q14">
-        <v>60.00287337577939</v>
+        <v>60.00287337577944</v>
       </c>
       <c r="R14">
         <v>-89.99999999999591</v>
@@ -16471,19 +16471,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773371269656744</v>
+        <v>0.5773371269656746</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P15">
-        <v>0.577331767333036</v>
+        <v>0.5773317673330365</v>
       </c>
       <c r="Q15">
         <v>60.00287332354947</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S15">
         <v>119.9974337355254</v>
@@ -16533,19 +16533,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541035</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P16">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720798</v>
       </c>
       <c r="Q16">
         <v>60.0028734802392</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>119.9974331061456</v>
@@ -16595,19 +16595,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541035</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P17">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720801</v>
       </c>
       <c r="Q17">
-        <v>60.00287348023918</v>
+        <v>60.00287348023917</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S17">
         <v>119.9974331061456</v>
@@ -16657,22 +16657,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371301714597</v>
+        <v>0.5773371301714596</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P18">
-        <v>0.5773317664135137</v>
+        <v>0.5773317664135145</v>
       </c>
       <c r="Q18">
-        <v>60.0028732452047</v>
+        <v>60.00287324520471</v>
       </c>
       <c r="R18">
         <v>-89.99999999999591</v>
       </c>
       <c r="S18">
-        <v>119.9974340502153</v>
+        <v>119.9974340502152</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -16719,16 +16719,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458401</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P19">
-        <v>0.5773317651874846</v>
+        <v>0.5773317651874854</v>
       </c>
       <c r="Q19">
-        <v>60.00287314074493</v>
+        <v>60.00287314074495</v>
       </c>
       <c r="R19">
         <v>-89.99999999999592</v>
@@ -16781,16 +16781,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371376516255</v>
+        <v>0.5773371376516254</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P20">
-        <v>0.5773317642679627</v>
+        <v>0.5773317642679636</v>
       </c>
       <c r="Q20">
-        <v>60.00287306240011</v>
+        <v>60.00287306240015</v>
       </c>
       <c r="R20">
         <v>-89.99999999999592</v>
@@ -16843,22 +16843,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202205</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P21">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614565</v>
       </c>
       <c r="Q21">
-        <v>60.00287303628517</v>
+        <v>60.00287303628519</v>
       </c>
       <c r="R21">
         <v>-89.99999999999592</v>
       </c>
       <c r="S21">
-        <v>119.9974348893884</v>
+        <v>119.9974348893883</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -16965,16 +16965,16 @@
         <v>0.01243393518288672</v>
       </c>
       <c r="I2">
-        <v>0.12435938670569</v>
+        <v>0.1243593867056899</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526076</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -16998,7 +16998,7 @@
         <v>119.997431871703</v>
       </c>
       <c r="T2">
-        <v>46.19055539395241</v>
+        <v>46.19055539395242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -17042,22 +17042,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773371184169133</v>
+        <v>0.5773371184169132</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962933</v>
+        <v>0.999999999996294</v>
       </c>
       <c r="P3">
-        <v>0.5773317697850939</v>
+        <v>0.5773317697850945</v>
       </c>
       <c r="Q3">
         <v>60.00287353246908</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S3">
-        <v>119.9974328963524</v>
+        <v>119.9974328963523</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,22 +17104,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202205</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P4">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614565</v>
       </c>
       <c r="Q4">
-        <v>60.00287303628517</v>
+        <v>60.00287303628518</v>
       </c>
       <c r="R4">
         <v>-89.99999999999592</v>
       </c>
       <c r="S4">
-        <v>119.9974348893884</v>
+        <v>119.9974348893883</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -17166,19 +17166,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458409</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P5">
-        <v>0.5773317651874855</v>
+        <v>0.5773317651874859</v>
       </c>
       <c r="Q5">
         <v>60.00287314074482</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999594</v>
+        <v>-89.99999999999595</v>
       </c>
       <c r="S5">
         <v>119.9974344698019</v>
@@ -17228,19 +17228,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773371408574111</v>
+        <v>0.5773371408574119</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P6">
-        <v>0.5773317633484423</v>
+        <v>0.5773317633484427</v>
       </c>
       <c r="Q6">
-        <v>60.00287298405514</v>
+        <v>60.0028729840551</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999595</v>
+        <v>-89.99999999999598</v>
       </c>
       <c r="S6">
         <v>119.9974350991817</v>
@@ -17290,19 +17290,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773371462003867</v>
+        <v>0.5773371462003878</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P7">
-        <v>0.5773317618159062</v>
+        <v>0.5773317618159067</v>
       </c>
       <c r="Q7">
-        <v>60.00287285348041</v>
+        <v>60.00287285348035</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S7">
         <v>119.9974356236649</v>
@@ -17352,19 +17352,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773371472689818</v>
+        <v>0.5773371472689829</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P8">
-        <v>0.5773317615093989</v>
+        <v>0.5773317615093997</v>
       </c>
       <c r="Q8">
-        <v>60.00287282736547</v>
+        <v>60.00287282736539</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999601</v>
       </c>
       <c r="S8">
         <v>119.9974357285615</v>
@@ -17414,19 +17414,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773371494061721</v>
+        <v>0.5773371494061732</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P9">
-        <v>0.5773317608963846</v>
+        <v>0.5773317608963853</v>
       </c>
       <c r="Q9">
-        <v>60.00287277513556</v>
+        <v>60.00287277513549</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S9">
         <v>119.9974359383548</v>
@@ -17476,19 +17476,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773371515433625</v>
+        <v>0.5773371515433636</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P10">
-        <v>0.5773317602833702</v>
+        <v>0.577331760283371</v>
       </c>
       <c r="Q10">
-        <v>60.00287272290565</v>
+        <v>60.00287272290558</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999599</v>
+        <v>-89.99999999999602</v>
       </c>
       <c r="S10">
         <v>119.9974361481481</v>
@@ -17538,19 +17538,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773371526119577</v>
+        <v>0.5773371526119587</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962923</v>
+        <v>0.9999999999962933</v>
       </c>
       <c r="P11">
-        <v>0.577331759976863</v>
+        <v>0.5773317599768638</v>
       </c>
       <c r="Q11">
-        <v>60.0028726967907</v>
+        <v>60.00287269679063</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999604</v>
       </c>
       <c r="S11">
         <v>119.9974362530447</v>
@@ -17600,22 +17600,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.577337121622699</v>
+        <v>0.5773371216226987</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P12">
-        <v>0.5773317688655721</v>
+        <v>0.5773317688655726</v>
       </c>
       <c r="Q12">
         <v>60.00287345412424</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S12">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -17662,22 +17662,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773371216226989</v>
+        <v>0.5773371216226988</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962932</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P13">
-        <v>0.577331768865572</v>
+        <v>0.5773317688655727</v>
       </c>
       <c r="Q13">
         <v>60.00287345412422</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S13">
-        <v>119.9974332110423</v>
+        <v>119.9974332110422</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -17724,16 +17724,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773371248284841</v>
+        <v>0.577337124828484</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P14">
-        <v>0.5773317679460502</v>
+        <v>0.5773317679460507</v>
       </c>
       <c r="Q14">
-        <v>60.00287337577939</v>
+        <v>60.00287337577944</v>
       </c>
       <c r="R14">
         <v>-89.99999999999591</v>
@@ -17786,19 +17786,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773371269656744</v>
+        <v>0.5773371269656746</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962931</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P15">
-        <v>0.577331767333036</v>
+        <v>0.5773317673330365</v>
       </c>
       <c r="Q15">
         <v>60.00287332354947</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S15">
         <v>119.9974337355254</v>
@@ -17848,19 +17848,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541035</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P16">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720798</v>
       </c>
       <c r="Q16">
         <v>60.0028734802392</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S16">
         <v>119.9974331061456</v>
@@ -17910,19 +17910,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773371205541038</v>
+        <v>0.5773371205541035</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962933</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P17">
-        <v>0.5773317691720794</v>
+        <v>0.5773317691720801</v>
       </c>
       <c r="Q17">
-        <v>60.00287348023918</v>
+        <v>60.00287348023917</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S17">
         <v>119.9974331061456</v>
@@ -17972,22 +17972,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773371301714597</v>
+        <v>0.5773371301714596</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962927</v>
+        <v>0.9999999999962939</v>
       </c>
       <c r="P18">
-        <v>0.5773317664135137</v>
+        <v>0.5773317664135145</v>
       </c>
       <c r="Q18">
-        <v>60.0028732452047</v>
+        <v>60.00287324520471</v>
       </c>
       <c r="R18">
         <v>-89.99999999999591</v>
       </c>
       <c r="S18">
-        <v>119.9974340502153</v>
+        <v>119.9974340502152</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -18034,16 +18034,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773371344458402</v>
+        <v>0.5773371344458401</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962936</v>
       </c>
       <c r="P19">
-        <v>0.5773317651874846</v>
+        <v>0.5773317651874854</v>
       </c>
       <c r="Q19">
-        <v>60.00287314074493</v>
+        <v>60.00287314074495</v>
       </c>
       <c r="R19">
         <v>-89.99999999999592</v>
@@ -18096,16 +18096,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773371376516255</v>
+        <v>0.5773371376516254</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962925</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P20">
-        <v>0.5773317642679627</v>
+        <v>0.5773317642679636</v>
       </c>
       <c r="Q20">
-        <v>60.00287306240011</v>
+        <v>60.00287306240015</v>
       </c>
       <c r="R20">
         <v>-89.99999999999592</v>
@@ -18158,22 +18158,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773371387202206</v>
+        <v>0.5773371387202205</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962924</v>
+        <v>0.9999999999962935</v>
       </c>
       <c r="P21">
-        <v>0.5773317639614555</v>
+        <v>0.5773317639614565</v>
       </c>
       <c r="Q21">
-        <v>60.00287303628517</v>
+        <v>60.00287303628519</v>
       </c>
       <c r="R21">
         <v>-89.99999999999592</v>
       </c>
       <c r="S21">
-        <v>119.9974348893884</v>
+        <v>119.9974348893883</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -18280,16 +18280,16 @@
         <v>0.01243393518288672</v>
       </c>
       <c r="I2">
-        <v>0.12435938670569</v>
+        <v>0.1243593867056899</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526076</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -18422,7 +18422,7 @@
         <v>0.990048007738098</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P4">
         <v>0.9963798888175243</v>
@@ -18484,7 +18484,7 @@
         <v>0.9900480076939761</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P5">
         <v>0.996379888850407</v>
@@ -18546,10 +18546,10 @@
         <v>0.990048007760159</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P6">
-        <v>0.9963798888010832</v>
+        <v>0.9963798888010831</v>
       </c>
       <c r="Q6">
         <v>29.91230372270408</v>
@@ -18667,13 +18667,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9900480078263423</v>
+        <v>0.9900480078263424</v>
       </c>
       <c r="O8">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P8">
-        <v>0.9963798887517593</v>
+        <v>0.9963798887517592</v>
       </c>
       <c r="Q8">
         <v>29.91230372815655</v>
@@ -18794,10 +18794,10 @@
         <v>0.9900480078704643</v>
       </c>
       <c r="O10">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188767</v>
+        <v>0.9963798887188769</v>
       </c>
       <c r="Q10">
         <v>29.91230373179153</v>
@@ -18859,7 +18859,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P11">
-        <v>0.9963798887106561</v>
+        <v>0.9963798887106562</v>
       </c>
       <c r="Q11">
         <v>29.91230373270027</v>
@@ -18915,7 +18915,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9900480075616098</v>
+        <v>0.9900480075616096</v>
       </c>
       <c r="O12">
         <v>0.9999999999994827</v>
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9900480075947011</v>
+        <v>0.9900480075947012</v>
       </c>
       <c r="O14">
         <v>0.9999999999994827</v>
@@ -19101,7 +19101,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076167624</v>
+        <v>0.9900480076167623</v>
       </c>
       <c r="O15">
         <v>0.9999999999994829</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480076939758</v>
+        <v>0.9900480076939761</v>
       </c>
       <c r="O19">
         <v>0.9999999999994827</v>
@@ -19476,7 +19476,7 @@
         <v>0.990048007738098</v>
       </c>
       <c r="O21">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P21">
         <v>0.9963798888175243</v>
@@ -19595,16 +19595,16 @@
         <v>0.01243393518288672</v>
       </c>
       <c r="I2">
-        <v>0.12435938670569</v>
+        <v>0.1243593867056899</v>
       </c>
       <c r="J2">
-        <v>0.01243796467526076</v>
+        <v>0.01243796467526075</v>
       </c>
       <c r="K2">
         <v>0.1243796443940179</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911723</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -19737,7 +19737,7 @@
         <v>0.990048007738098</v>
       </c>
       <c r="O4">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P4">
         <v>0.9963798888175243</v>
@@ -19799,7 +19799,7 @@
         <v>0.9900480076939761</v>
       </c>
       <c r="O5">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P5">
         <v>0.996379888850407</v>
@@ -19861,10 +19861,10 @@
         <v>0.990048007760159</v>
       </c>
       <c r="O6">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P6">
-        <v>0.9963798888010832</v>
+        <v>0.9963798888010831</v>
       </c>
       <c r="Q6">
         <v>29.91230372270408</v>
@@ -19982,13 +19982,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9900480078263423</v>
+        <v>0.9900480078263424</v>
       </c>
       <c r="O8">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P8">
-        <v>0.9963798887517593</v>
+        <v>0.9963798887517592</v>
       </c>
       <c r="Q8">
         <v>29.91230372815655</v>
@@ -20109,10 +20109,10 @@
         <v>0.9900480078704643</v>
       </c>
       <c r="O10">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P10">
-        <v>0.9963798887188767</v>
+        <v>0.9963798887188769</v>
       </c>
       <c r="Q10">
         <v>29.91230373179153</v>
@@ -20174,7 +20174,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P11">
-        <v>0.9963798887106561</v>
+        <v>0.9963798887106562</v>
       </c>
       <c r="Q11">
         <v>29.91230373270027</v>
@@ -20230,7 +20230,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9900480075616098</v>
+        <v>0.9900480075616096</v>
       </c>
       <c r="O12">
         <v>0.9999999999994827</v>
@@ -20354,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9900480075947011</v>
+        <v>0.9900480075947012</v>
       </c>
       <c r="O14">
         <v>0.9999999999994827</v>
@@ -20416,7 +20416,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480076167624</v>
+        <v>0.9900480076167623</v>
       </c>
       <c r="O15">
         <v>0.9999999999994829</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480076939758</v>
+        <v>0.9900480076939761</v>
       </c>
       <c r="O19">
         <v>0.9999999999994827</v>
@@ -20791,7 +20791,7 @@
         <v>0.990048007738098</v>
       </c>
       <c r="O21">
-        <v>0.9999999999994827</v>
+        <v>0.9999999999994829</v>
       </c>
       <c r="P21">
         <v>0.9963798888175243</v>
@@ -20895,7 +20895,7 @@
         <v>57.7361891589993</v>
       </c>
       <c r="D2">
-        <v>57.73665779988408</v>
+        <v>57.7366577998841</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -20904,37 +20904,37 @@
         <v>333.340043529314</v>
       </c>
       <c r="G2">
-        <v>333.3427492287238</v>
+        <v>333.3427492287239</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686274</v>
+        <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350546586525604</v>
+        <v>0.6350546586525606</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350546586685618</v>
+        <v>0.6350546586685615</v>
       </c>
       <c r="Q2">
-        <v>0.0002685308235050258</v>
+        <v>0.0002685308235285144</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20943,7 +20943,7 @@
         <v>-179.9997314682416</v>
       </c>
       <c r="T2">
-        <v>57.74060313987399</v>
+        <v>57.74060313987401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -20987,22 +20987,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546429056423</v>
+        <v>0.6350546429056418</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350546760135926</v>
+        <v>0.635054676013592</v>
       </c>
       <c r="Q3">
-        <v>0.0002695176214235225</v>
+        <v>0.0002695176214794216</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9997307311271</v>
+        <v>-179.9997307311269</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -21049,22 +21049,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350546326853445</v>
+        <v>0.635054632685343</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350546945307262</v>
+        <v>0.6350546945307255</v>
       </c>
       <c r="Q4">
-        <v>0.0002709143440116555</v>
+        <v>0.000270914344125327</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9997306307914</v>
+        <v>-179.9997306307912</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -21111,22 +21111,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350546348369831</v>
+        <v>0.6350546348369827</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350546906323825</v>
+        <v>0.6350546906323818</v>
       </c>
       <c r="Q5">
-        <v>0.0002706202969112642</v>
+        <v>0.0002706202971014467</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9997306519146</v>
+        <v>-179.9997306519145</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -21173,22 +21173,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350546316095192</v>
+        <v>0.6350546316095189</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350546964798983</v>
+        <v>0.6350546964798978</v>
       </c>
       <c r="Q6">
-        <v>0.0002710613671195446</v>
+        <v>0.0002710613673554633</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9997306202297</v>
+        <v>-179.9997306202295</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -21235,22 +21235,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350546289199663</v>
+        <v>0.6350546289199656</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350547013528283</v>
+        <v>0.6350547013528275</v>
       </c>
       <c r="Q7">
-        <v>0.0002714289256454102</v>
+        <v>0.0002714289259034353</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9997305938255</v>
+        <v>-179.9997305938253</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -21297,22 +21297,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.635054628382056</v>
+        <v>0.6350546283820551</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350547023274143</v>
+        <v>0.6350547023274135</v>
       </c>
       <c r="Q8">
-        <v>0.0002715024373700344</v>
+        <v>0.0002715024376208749</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9997305885446</v>
+        <v>-179.9997305885445</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -21359,22 +21359,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546273062345</v>
+        <v>0.6350546273062337</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350547042765862</v>
+        <v>0.6350547042765853</v>
       </c>
       <c r="Q9">
-        <v>0.0002716494607616616</v>
+        <v>0.0002716494610196864</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.999730577983</v>
+        <v>-179.9997305779828</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -21421,22 +21421,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350546262304131</v>
+        <v>0.6350546262304124</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350547062257581</v>
+        <v>0.6350547062257573</v>
       </c>
       <c r="Q10">
-        <v>0.0002717964841704757</v>
+        <v>0.0002717964844285003</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9997305674213</v>
+        <v>-179.9997305674211</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -21483,22 +21483,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350546256925024</v>
+        <v>0.6350546256925017</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.635054707200344</v>
+        <v>0.6350547072003432</v>
       </c>
       <c r="Q11">
-        <v>0.0002718699958779801</v>
+        <v>0.0002718699961417878</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9997305621405</v>
+        <v>-179.9997305621403</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -21545,22 +21545,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.63505464129191</v>
+        <v>0.6350546412919095</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350546789373503</v>
+        <v>0.63505467893735</v>
       </c>
       <c r="Q12">
-        <v>0.0002697381565230435</v>
+        <v>0.0002697381565715415</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9997307152846</v>
+        <v>-179.9997307152844</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -21607,22 +21607,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.63505464129191</v>
+        <v>0.6350546412919095</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350546789373502</v>
+        <v>0.63505467893735</v>
       </c>
       <c r="Q13">
-        <v>0.0002697381564836098</v>
+        <v>0.0002697381565748403</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9997307152846</v>
+        <v>-179.9997307152844</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -21669,22 +21669,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350546396781798</v>
+        <v>0.6350546396781789</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350546818611084</v>
+        <v>0.6350546818611078</v>
       </c>
       <c r="Q14">
-        <v>0.0002699586916905751</v>
+        <v>0.0002699586917678682</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9997306994422</v>
+        <v>-179.999730699442</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -21731,22 +21731,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546386023574</v>
+        <v>0.6350546386023569</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350546838102805</v>
+        <v>0.63505468381028</v>
       </c>
       <c r="Q15">
-        <v>0.0002701057150092577</v>
+        <v>0.0002701057151426964</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9997306888804</v>
+        <v>-179.9997306888803</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -21793,22 +21793,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.635054641829821</v>
+        <v>0.6350546418298203</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350546779627644</v>
+        <v>0.6350546779627639</v>
       </c>
       <c r="Q16">
-        <v>0.0002696646448181033</v>
+        <v>0.0002696646448666013</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9997307205654</v>
+        <v>-179.9997307205653</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -21855,22 +21855,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.635054641829821</v>
+        <v>0.6350546418298203</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350546779627643</v>
+        <v>0.6350546779627639</v>
       </c>
       <c r="Q17">
-        <v>0.000269664644799669</v>
+        <v>0.0002696646448771965</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9997307205654</v>
+        <v>-179.9997307205653</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -21917,22 +21917,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350546369886277</v>
+        <v>0.6350546369886266</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350546867340383</v>
+        <v>0.6350546867340378</v>
       </c>
       <c r="Q18">
-        <v>0.000270326250269405</v>
+        <v>0.0002703262503711376</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999730673038</v>
+        <v>-179.9997306730378</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,22 +21979,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350546348369862</v>
+        <v>0.6350546348369849</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350546906323822</v>
+        <v>0.6350546906323813</v>
       </c>
       <c r="Q19">
-        <v>0.0002706202971544906</v>
+        <v>0.0002706202972535878</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9997306519147</v>
+        <v>-179.9997306519145</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,22 +22041,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350546332232551</v>
+        <v>0.6350546332232536</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350546935561403</v>
+        <v>0.6350546935561394</v>
       </c>
       <c r="Q20">
-        <v>0.0002708408323108713</v>
+        <v>0.0002708408324167129</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9997306360723</v>
+        <v>-179.999730636072</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -22103,22 +22103,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546326853445</v>
+        <v>0.635054632685343</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350546945307262</v>
+        <v>0.6350546945307253</v>
       </c>
       <c r="Q21">
-        <v>0.0002709143440058723</v>
+        <v>0.0002709143441232802</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9997306307914</v>
+        <v>-179.9997306307912</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -22207,16 +22207,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73618905602832</v>
+        <v>57.7361890560283</v>
       </c>
       <c r="D2">
-        <v>57.73665686329454</v>
+        <v>57.73665686329453</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3400429348108</v>
+        <v>333.3400429348106</v>
       </c>
       <c r="G2">
         <v>333.3427438213216</v>
@@ -22228,19 +22228,19 @@
         <v>0.1094384002926759</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714028</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686273</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350546700868613</v>
+        <v>0.6350546700868611</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350546701028627</v>
       </c>
       <c r="Q2">
-        <v>0.0002680531534665988</v>
+        <v>0.0002680531534901086</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22302,22 +22302,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350546535900897</v>
+        <v>0.6350546535900889</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350546882738473</v>
+        <v>0.635054688273847</v>
       </c>
       <c r="Q3">
-        <v>0.0002690869418238774</v>
+        <v>0.0002690869418777772</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9997311736965</v>
+        <v>-179.9997311736963</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -22364,22 +22364,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350546433697914</v>
+        <v>0.635054643369789</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350547067909806</v>
+        <v>0.6350547067909805</v>
       </c>
       <c r="Q4">
-        <v>0.0002704836643923487</v>
+        <v>0.0002704836643756955</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9997310733609</v>
+        <v>-179.9997310733606</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -22426,22 +22426,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350546455214301</v>
+        <v>0.6350546455214294</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350547028926374</v>
+        <v>0.635054702892637</v>
       </c>
       <c r="Q5">
-        <v>0.0002701896172693376</v>
+        <v>0.0002701896174712223</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.999731094484</v>
+        <v>-179.9997310944839</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -22488,22 +22488,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350546422939662</v>
+        <v>0.6350546422939657</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350547087401528</v>
+        <v>0.6350547087401527</v>
       </c>
       <c r="Q6">
-        <v>0.0002706306874534155</v>
+        <v>0.0002706306877199442</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9997310627991</v>
+        <v>-179.9997310627989</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350546396044132</v>
+        <v>0.6350546396044124</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350547136130827</v>
+        <v>0.6350547136130823</v>
       </c>
       <c r="Q7">
-        <v>0.000270998245974966</v>
+        <v>0.0002709982462591907</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9997310363949</v>
+        <v>-179.9997310363948</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -22612,22 +22612,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350546390665024</v>
+        <v>0.6350546390665018</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350547145876688</v>
+        <v>0.6350547145876684</v>
       </c>
       <c r="Q8">
-        <v>0.0002710717576754486</v>
+        <v>0.0002710717579736212</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9997310311141</v>
+        <v>-179.999731031114</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -22674,22 +22674,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350546379906811</v>
+        <v>0.6350546379906803</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350547165368404</v>
+        <v>0.6350547165368402</v>
       </c>
       <c r="Q9">
-        <v>0.0002712187810726004</v>
+        <v>0.000271218781368391</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9997310205524</v>
+        <v>-179.9997310205523</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -22736,22 +22736,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350546369148599</v>
+        <v>0.6350546369148589</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350547184860124</v>
+        <v>0.6350547184860119</v>
       </c>
       <c r="Q10">
-        <v>0.0002713658044767139</v>
+        <v>0.0002713658047782877</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9997310099907</v>
+        <v>-179.9997310099906</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -22798,22 +22798,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.635054636376949</v>
+        <v>0.6350546363769483</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350547194605983</v>
+        <v>0.6350547194605978</v>
       </c>
       <c r="Q11">
-        <v>0.000271439316181868</v>
+        <v>0.0002714393164834416</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9997310047099</v>
+        <v>-179.9997310047098</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -22860,22 +22860,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350546519763572</v>
+        <v>0.6350546519763567</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350546911976053</v>
+        <v>0.6350546911976049</v>
       </c>
       <c r="Q12">
-        <v>0.0002693074769283624</v>
+        <v>0.0002693074769883439</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.999731157854</v>
+        <v>-179.9997311578538</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -22922,22 +22922,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350546519763572</v>
+        <v>0.6350546519763567</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350546911976053</v>
+        <v>0.6350546911976049</v>
       </c>
       <c r="Q13">
-        <v>0.0002693074768649205</v>
+        <v>0.0002693074769885579</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.999731157854</v>
+        <v>-179.9997311578538</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -22984,22 +22984,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350546503626269</v>
+        <v>0.6350546503626257</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350546941213634</v>
+        <v>0.6350546941213631</v>
       </c>
       <c r="Q14">
-        <v>0.0002695280120891297</v>
+        <v>0.0002695280120977966</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9997311420116</v>
+        <v>-179.9997311420114</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -23046,22 +23046,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350546492868046</v>
+        <v>0.6350546492868038</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350546960705353</v>
+        <v>0.6350546960705352</v>
       </c>
       <c r="Q15">
-        <v>0.000269675035394102</v>
+        <v>0.0002696750355201201</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9997311314499</v>
+        <v>-179.9997311314497</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -23108,22 +23108,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350546525142682</v>
+        <v>0.6350546525142674</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350546902230193</v>
+        <v>0.6350546902230192</v>
       </c>
       <c r="Q16">
-        <v>0.0002692339652199894</v>
+        <v>0.0002692339652799709</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.9997311631348</v>
+        <v>-179.9997311631347</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -23170,22 +23170,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350546525142682</v>
+        <v>0.6350546525142675</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350546902230193</v>
+        <v>0.6350546902230191</v>
       </c>
       <c r="Q17">
-        <v>0.0002692339651917118</v>
+        <v>0.0002692339652947661</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.9997311631349</v>
+        <v>-179.9997311631347</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -23232,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.635054647673075</v>
+        <v>0.6350546476730731</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -23241,13 +23241,13 @@
         <v>0.635054698994293</v>
       </c>
       <c r="Q18">
-        <v>0.0002698955706637317</v>
+        <v>0.0002698955706590416</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9997311156075</v>
+        <v>-179.9997311156073</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -23294,7 +23294,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350546455214333</v>
+        <v>0.6350546455214311</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>0.6350547028926368</v>
       </c>
       <c r="Q19">
-        <v>0.0002701896175388018</v>
+        <v>0.0002701896175103432</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9997310944842</v>
+        <v>-179.999731094484</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -23356,22 +23356,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350546439077021</v>
+        <v>0.6350546439076997</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350547058163949</v>
+        <v>0.6350547058163948</v>
       </c>
       <c r="Q20">
-        <v>0.0002704101526939147</v>
+        <v>0.0002704101526668606</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9997310786417</v>
+        <v>-179.9997310786415</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350546433697914</v>
+        <v>0.635054643369789</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350547067909806</v>
+        <v>0.6350547067909805</v>
       </c>
       <c r="Q21">
-        <v>0.0002704836643923487</v>
+        <v>0.0002704836643710776</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9997310733609</v>
+        <v>-179.9997310733606</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -23537,19 +23537,19 @@
         <v>5.123517109782726</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686274</v>
+        <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -23877,7 +23877,7 @@
         <v>29.52465642997524</v>
       </c>
       <c r="R7">
-        <v>-90.55768081989925</v>
+        <v>-90.55768081989926</v>
       </c>
       <c r="S7">
         <v>149.9221292610964</v>
@@ -24858,13 +24858,13 @@
         <v>0.1094384002926759</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714028</v>
+        <v>0.01094540889714029</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686273</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -25003,10 +25003,10 @@
         <v>1.090352558509866</v>
       </c>
       <c r="Q4">
-        <v>29.52465642631506</v>
+        <v>29.52465642631505</v>
       </c>
       <c r="R4">
-        <v>-90.55768082819935</v>
+        <v>-90.55768082819934</v>
       </c>
       <c r="S4">
         <v>149.9221292567302</v>
@@ -25127,7 +25127,7 @@
         <v>1.090352558519018</v>
       </c>
       <c r="Q6">
-        <v>29.52465642746869</v>
+        <v>29.5246564274687</v>
       </c>
       <c r="R6">
         <v>-90.55768082552622</v>
@@ -25313,7 +25313,7 @@
         <v>1.090352558555629</v>
       </c>
       <c r="Q9">
-        <v>29.52465643208322</v>
+        <v>29.52465643208321</v>
       </c>
       <c r="R9">
         <v>-90.55768081483373</v>
@@ -25375,7 +25375,7 @@
         <v>1.090352558564781</v>
       </c>
       <c r="Q10">
-        <v>29.52465643323685</v>
+        <v>29.52465643323684</v>
       </c>
       <c r="R10">
         <v>-90.5576808121606</v>
@@ -25561,7 +25561,7 @@
         <v>1.090352558436645</v>
       </c>
       <c r="Q13">
-        <v>29.524656417086</v>
+        <v>29.52465641708601</v>
       </c>
       <c r="R13">
         <v>-90.55768084958433</v>
@@ -25682,7 +25682,7 @@
         <v>1.086862152224225</v>
       </c>
       <c r="P15">
-        <v>1.090352558459527</v>
+        <v>1.090352558459526</v>
       </c>
       <c r="Q15">
         <v>29.52465641997009</v>
@@ -25933,10 +25933,10 @@
         <v>1.09035255849156</v>
       </c>
       <c r="Q19">
-        <v>29.52465642400779</v>
+        <v>29.5246564240078</v>
       </c>
       <c r="R19">
-        <v>-90.55768083354559</v>
+        <v>-90.55768083354558</v>
       </c>
       <c r="S19">
         <v>149.9221292537262</v>
@@ -26057,10 +26057,10 @@
         <v>1.090352558509866</v>
       </c>
       <c r="Q21">
-        <v>29.52465642631506</v>
+        <v>29.52465642631505</v>
       </c>
       <c r="R21">
-        <v>-90.55768082819935</v>
+        <v>-90.55768082819934</v>
       </c>
       <c r="S21">
         <v>149.9221292567302</v>
@@ -26152,7 +26152,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18907668571199</v>
+        <v>46.18907668571197</v>
       </c>
       <c r="D2">
         <v>46.18950210354603</v>
@@ -26170,7 +26170,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -26179,10 +26179,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.5773186145024687</v>
@@ -26194,7 +26194,7 @@
         <v>0.5773186144816088</v>
       </c>
       <c r="Q2">
-        <v>0.0003047078022327568</v>
+        <v>0.0003047078022455429</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>-179.9996952927372</v>
       </c>
       <c r="T2">
-        <v>46.19308790992186</v>
+        <v>46.19308790992185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -26247,16 +26247,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773185996363969</v>
+        <v>0.5773185996363965</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186308564657</v>
+        <v>0.5773186308564655</v>
       </c>
       <c r="Q3">
-        <v>0.0003057325834278347</v>
+        <v>0.0003057325834564284</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,16 +26309,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148535</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597823</v>
       </c>
       <c r="Q4">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561157062</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185950404427</v>
+        <v>0.5773185950404425</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577318646885401</v>
+        <v>0.5773186468854007</v>
       </c>
       <c r="Q5">
-        <v>0.0003073060618806023</v>
+        <v>0.0003073060618854622</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -26433,22 +26433,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185932020615</v>
+        <v>0.5773185932020612</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577318653296975</v>
+        <v>0.5773186532969745</v>
       </c>
       <c r="Q6">
-        <v>0.0003079354532812322</v>
+        <v>0.000307935453264206</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950754569</v>
+        <v>-179.999695075457</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26495,22 +26495,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318591670077</v>
+        <v>0.5773185916700768</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773186586399531</v>
+        <v>0.5773186586399527</v>
       </c>
       <c r="Q7">
-        <v>0.0003084599461170235</v>
+        <v>0.0003084599460548764</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952059824</v>
+        <v>-179.9996952059825</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26557,22 +26557,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773185913636801</v>
+        <v>0.5773185913636799</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186597085487</v>
+        <v>0.5773186597085483</v>
       </c>
       <c r="Q8">
-        <v>0.0003085648446527969</v>
+        <v>0.0003085648446148617</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9996952320875</v>
+        <v>-179.9996952320877</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -26619,22 +26619,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185907508862</v>
+        <v>0.577318590750886</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186618457402</v>
+        <v>0.5773186618457398</v>
       </c>
       <c r="Q9">
-        <v>0.0003087746418110354</v>
+        <v>0.0003087746417488882</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952842977</v>
+        <v>-179.9996952842979</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -26681,22 +26681,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185901380925</v>
+        <v>0.5773185901380922</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186639829316</v>
+        <v>0.5773186639829312</v>
       </c>
       <c r="Q10">
-        <v>0.0003089844389392091</v>
+        <v>0.0003089844388834234</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999695336508</v>
+        <v>-179.9996953365081</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185898316956</v>
+        <v>0.5773185898316954</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186650515274</v>
+        <v>0.577318665051527</v>
       </c>
       <c r="Q11">
-        <v>0.0003090893375019144</v>
+        <v>0.00030908933745249</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953626131</v>
+        <v>-179.9996953626132</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26805,16 +26805,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172054</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577318634062253</v>
+        <v>0.5773186340622527</v>
       </c>
       <c r="Q12">
-        <v>0.0003060472791147639</v>
+        <v>0.0003060472791291592</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26867,16 +26867,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172057</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186340622528</v>
+        <v>0.5773186340622526</v>
       </c>
       <c r="Q13">
-        <v>0.0003060472790613747</v>
+        <v>0.0003060472791497237</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773185977980146</v>
+        <v>0.5773185977980142</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186372680397</v>
+        <v>0.5773186372680396</v>
       </c>
       <c r="Q14">
-        <v>0.0003063619747672328</v>
+        <v>0.0003063619748240936</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26991,16 +26991,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185971852213</v>
+        <v>0.5773185971852209</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186394052312</v>
+        <v>0.577318639405231</v>
       </c>
       <c r="Q15">
-        <v>0.000306571771923021</v>
+        <v>0.0003065717719510522</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -27053,16 +27053,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236025</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186329936574</v>
+        <v>0.577318632993657</v>
       </c>
       <c r="Q16">
-        <v>0.0003059423805532767</v>
+        <v>0.000305942380580395</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -27115,16 +27115,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236027</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186329936572</v>
+        <v>0.577318632993657</v>
       </c>
       <c r="Q17">
-        <v>0.000305942380525701</v>
+        <v>0.0003059423805798467</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -27177,7 +27177,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185962660295</v>
+        <v>0.5773185962660291</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -27186,13 +27186,13 @@
         <v>0.5773186426110177</v>
       </c>
       <c r="Q18">
-        <v>0.0003068864675365326</v>
+        <v>0.0003068864676466275</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999694814406</v>
+        <v>-179.9996948144059</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -27239,22 +27239,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185950404416</v>
+        <v>0.5773185950404413</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186468854002</v>
+        <v>0.5773186468853999</v>
       </c>
       <c r="Q19">
-        <v>0.0003073060617433438</v>
+        <v>0.0003073060618990608</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9996949188264</v>
+        <v>-179.9996949188263</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -27301,16 +27301,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185941212506</v>
+        <v>0.5773185941212504</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186500911872</v>
+        <v>0.5773186500911867</v>
       </c>
       <c r="Q20">
-        <v>0.0003076207573873529</v>
+        <v>0.0003076207575610876</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -27363,16 +27363,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148535</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597825</v>
       </c>
       <c r="Q21">
-        <v>0.0003077256559278645</v>
+        <v>0.000307725656114322</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -27963,7 +27963,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>46.18907668571199</v>
+        <v>46.18907668571197</v>
       </c>
       <c r="D2">
         <v>46.18950210354603</v>
@@ -27981,7 +27981,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -27990,10 +27990,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.5773186145024687</v>
@@ -28005,7 +28005,7 @@
         <v>0.5773186144816088</v>
       </c>
       <c r="Q2">
-        <v>0.0003047078022327568</v>
+        <v>0.0003047078022455429</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>-179.9996952927372</v>
       </c>
       <c r="T2">
-        <v>46.19308790992186</v>
+        <v>46.19308790992185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773185996363969</v>
+        <v>0.5773185996363965</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773186308564657</v>
+        <v>0.5773186308564655</v>
       </c>
       <c r="Q3">
-        <v>0.0003057325834278347</v>
+        <v>0.0003057325834564284</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,16 +28120,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148535</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597823</v>
       </c>
       <c r="Q4">
-        <v>0.0003077256559278645</v>
+        <v>0.0003077256561157062</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -28182,16 +28182,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773185950404427</v>
+        <v>0.5773185950404425</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.577318646885401</v>
+        <v>0.5773186468854007</v>
       </c>
       <c r="Q5">
-        <v>0.0003073060618806023</v>
+        <v>0.0003073060618854622</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -28244,22 +28244,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773185932020615</v>
+        <v>0.5773185932020612</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.577318653296975</v>
+        <v>0.5773186532969745</v>
       </c>
       <c r="Q6">
-        <v>0.0003079354532812322</v>
+        <v>0.000307935453264206</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9996950754569</v>
+        <v>-179.999695075457</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -28306,22 +28306,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.577318591670077</v>
+        <v>0.5773185916700768</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773186586399531</v>
+        <v>0.5773186586399527</v>
       </c>
       <c r="Q7">
-        <v>0.0003084599461170235</v>
+        <v>0.0003084599460548764</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9996952059824</v>
+        <v>-179.9996952059825</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28368,22 +28368,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773185913636801</v>
+        <v>0.5773185913636799</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.5773186597085487</v>
+        <v>0.5773186597085483</v>
       </c>
       <c r="Q8">
-        <v>0.0003085648446527969</v>
+        <v>0.0003085648446148617</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9996952320875</v>
+        <v>-179.9996952320877</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -28430,22 +28430,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773185907508862</v>
+        <v>0.577318590750886</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773186618457402</v>
+        <v>0.5773186618457398</v>
       </c>
       <c r="Q9">
-        <v>0.0003087746418110354</v>
+        <v>0.0003087746417488882</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9996952842977</v>
+        <v>-179.9996952842979</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -28492,22 +28492,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773185901380925</v>
+        <v>0.5773185901380922</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773186639829316</v>
+        <v>0.5773186639829312</v>
       </c>
       <c r="Q10">
-        <v>0.0003089844389392091</v>
+        <v>0.0003089844388834234</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.999695336508</v>
+        <v>-179.9996953365081</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773185898316956</v>
+        <v>0.5773185898316954</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773186650515274</v>
+        <v>0.577318665051527</v>
       </c>
       <c r="Q11">
-        <v>0.0003090893375019144</v>
+        <v>0.00030908933745249</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9996953626131</v>
+        <v>-179.9996953626132</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28616,16 +28616,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172054</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.577318634062253</v>
+        <v>0.5773186340622527</v>
       </c>
       <c r="Q12">
-        <v>0.0003060472791147639</v>
+        <v>0.0003060472791291592</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -28678,16 +28678,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773185987172058</v>
+        <v>0.5773185987172057</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773186340622528</v>
+        <v>0.5773186340622526</v>
       </c>
       <c r="Q13">
-        <v>0.0003060472790613747</v>
+        <v>0.0003060472791497237</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -28740,16 +28740,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773185977980146</v>
+        <v>0.5773185977980142</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773186372680397</v>
+        <v>0.5773186372680396</v>
       </c>
       <c r="Q14">
-        <v>0.0003063619747672328</v>
+        <v>0.0003063619748240936</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -28802,16 +28802,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773185971852213</v>
+        <v>0.5773185971852209</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773186394052312</v>
+        <v>0.577318639405231</v>
       </c>
       <c r="Q15">
-        <v>0.000306571771923021</v>
+        <v>0.0003065717719510522</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -28864,16 +28864,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236025</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773186329936574</v>
+        <v>0.577318632993657</v>
       </c>
       <c r="Q16">
-        <v>0.0003059423805532767</v>
+        <v>0.000305942380580395</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -28926,16 +28926,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773185990236029</v>
+        <v>0.5773185990236027</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773186329936572</v>
+        <v>0.577318632993657</v>
       </c>
       <c r="Q17">
-        <v>0.000305942380525701</v>
+        <v>0.0003059423805798467</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28988,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773185962660295</v>
+        <v>0.5773185962660291</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -28997,13 +28997,13 @@
         <v>0.5773186426110177</v>
       </c>
       <c r="Q18">
-        <v>0.0003068864675365326</v>
+        <v>0.0003068864676466275</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.999694814406</v>
+        <v>-179.9996948144059</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -29050,22 +29050,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773185950404416</v>
+        <v>0.5773185950404413</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773186468854002</v>
+        <v>0.5773186468853999</v>
       </c>
       <c r="Q19">
-        <v>0.0003073060617433438</v>
+        <v>0.0003073060618990608</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9996949188264</v>
+        <v>-179.9996949188263</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -29112,16 +29112,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773185941212506</v>
+        <v>0.5773185941212504</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773186500911872</v>
+        <v>0.5773186500911867</v>
       </c>
       <c r="Q20">
-        <v>0.0003076207573873529</v>
+        <v>0.0003076207575610876</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773185938148536</v>
+        <v>0.5773185938148535</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.577318651159783</v>
+        <v>0.5773186511597825</v>
       </c>
       <c r="Q21">
-        <v>0.0003077256559278645</v>
+        <v>0.000307725656114322</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -29296,7 +29296,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -29305,10 +29305,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.9963798800464844</v>
@@ -29373,7 +29373,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.996379879761804</v>
+        <v>0.9963798797618041</v>
       </c>
       <c r="O3">
         <v>0.9864427565220329</v>
@@ -29441,7 +29441,7 @@
         <v>0.9864427565720366</v>
       </c>
       <c r="P4">
-        <v>0.9900480169282441</v>
+        <v>0.990048016928244</v>
       </c>
       <c r="Q4">
         <v>29.46075694569368</v>
@@ -29497,7 +29497,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9963798796384948</v>
+        <v>0.9963798796384947</v>
       </c>
       <c r="O5">
         <v>0.9864427565615096</v>
@@ -29568,7 +29568,7 @@
         <v>0.990048016950305</v>
       </c>
       <c r="Q6">
-        <v>29.4607569476879</v>
+        <v>29.46075694768789</v>
       </c>
       <c r="R6">
         <v>-90.63269604646727</v>
@@ -29621,10 +29621,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798795480683</v>
+        <v>0.9963798795480679</v>
       </c>
       <c r="O7">
-        <v>0.9864427565904591</v>
+        <v>0.986442756590459</v>
       </c>
       <c r="P7">
         <v>0.9900480170054576</v>
@@ -29683,13 +29683,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798795398476</v>
+        <v>0.9963798795398473</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480170164879</v>
+        <v>0.990048017016488</v>
       </c>
       <c r="Q8">
         <v>29.46075695367056</v>
@@ -29807,7 +29807,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.996379879506965</v>
+        <v>0.9963798795069649</v>
       </c>
       <c r="O10">
         <v>0.9864427566036181</v>
@@ -29875,7 +29875,7 @@
         <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480170716406</v>
+        <v>0.9900480170716407</v>
       </c>
       <c r="Q11">
         <v>29.46075695865611</v>
@@ -30058,7 +30058,7 @@
         <v>0.9963798797124803</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
         <v>0.9900480167848473</v>
@@ -30185,7 +30185,7 @@
         <v>0.9864427565272964</v>
       </c>
       <c r="P16">
-        <v>0.9900480167407255</v>
+        <v>0.9900480167407254</v>
       </c>
       <c r="Q16">
         <v>29.46075692874281</v>
@@ -30368,7 +30368,7 @@
         <v>0.9963798796384947</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.990048016884122</v>
@@ -30433,10 +30433,10 @@
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480169172134</v>
+        <v>0.9900480169172136</v>
       </c>
       <c r="Q20">
-        <v>29.46075694469656</v>
+        <v>29.46075694469657</v>
       </c>
       <c r="R20">
         <v>-90.63269605224076</v>
@@ -30495,7 +30495,7 @@
         <v>0.9864427565720366</v>
       </c>
       <c r="P21">
-        <v>0.9900480169282441</v>
+        <v>0.990048016928244</v>
       </c>
       <c r="Q21">
         <v>29.46075694569368</v>
@@ -30611,7 +30611,7 @@
         <v>0.01243393518288619</v>
       </c>
       <c r="I2">
-        <v>0.1243593867057003</v>
+        <v>0.1243593867057004</v>
       </c>
       <c r="J2">
         <v>0.01243796466366949</v>
@@ -30620,10 +30620,10 @@
         <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911625</v>
+        <v>0.01243796465911626</v>
       </c>
       <c r="M2">
-        <v>0.1243796443940132</v>
+        <v>0.1243796443940133</v>
       </c>
       <c r="N2">
         <v>0.9963798800464844</v>
@@ -30688,7 +30688,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.996379879761804</v>
+        <v>0.9963798797618041</v>
       </c>
       <c r="O3">
         <v>0.9864427565220329</v>
@@ -30756,7 +30756,7 @@
         <v>0.9864427565720366</v>
       </c>
       <c r="P4">
-        <v>0.9900480169282441</v>
+        <v>0.990048016928244</v>
       </c>
       <c r="Q4">
         <v>29.46075694569368</v>
@@ -30812,7 +30812,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9963798796384948</v>
+        <v>0.9963798796384947</v>
       </c>
       <c r="O5">
         <v>0.9864427565615096</v>
@@ -30883,7 +30883,7 @@
         <v>0.990048016950305</v>
       </c>
       <c r="Q6">
-        <v>29.4607569476879</v>
+        <v>29.46075694768789</v>
       </c>
       <c r="R6">
         <v>-90.63269604646727</v>
@@ -30936,10 +30936,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798795480683</v>
+        <v>0.9963798795480679</v>
       </c>
       <c r="O7">
-        <v>0.9864427565904591</v>
+        <v>0.986442756590459</v>
       </c>
       <c r="P7">
         <v>0.9900480170054576</v>
@@ -30998,13 +30998,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798795398476</v>
+        <v>0.9963798795398473</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480170164879</v>
+        <v>0.990048017016488</v>
       </c>
       <c r="Q8">
         <v>29.46075695367056</v>
@@ -31122,7 +31122,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.996379879506965</v>
+        <v>0.9963798795069649</v>
       </c>
       <c r="O10">
         <v>0.9864427566036181</v>
@@ -31190,7 +31190,7 @@
         <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480170716406</v>
+        <v>0.9900480170716407</v>
       </c>
       <c r="Q11">
         <v>29.46075695865611</v>
@@ -31373,7 +31373,7 @@
         <v>0.9963798797124803</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
         <v>0.9900480167848473</v>
@@ -31500,7 +31500,7 @@
         <v>0.9864427565272964</v>
       </c>
       <c r="P16">
-        <v>0.9900480167407255</v>
+        <v>0.9900480167407254</v>
       </c>
       <c r="Q16">
         <v>29.46075692874281</v>
@@ -31683,7 +31683,7 @@
         <v>0.9963798796384947</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.990048016884122</v>
@@ -31748,10 +31748,10 @@
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480169172134</v>
+        <v>0.9900480169172136</v>
       </c>
       <c r="Q20">
-        <v>29.46075694469656</v>
+        <v>29.46075694469657</v>
       </c>
       <c r="R20">
         <v>-90.63269605224076</v>
@@ -31810,7 +31810,7 @@
         <v>0.9864427565720366</v>
       </c>
       <c r="P21">
-        <v>0.9900480169282441</v>
+        <v>0.990048016928244</v>
       </c>
       <c r="Q21">
         <v>29.46075694569368</v>
@@ -34385,34 +34385,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.0000028350735</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="D2">
-        <v>50.0000028350735</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="G2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="H2">
-        <v>0.01094228568963189</v>
+        <v>0.01094228568963188</v>
       </c>
       <c r="I2">
         <v>0.1094383946554753</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714036</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686274</v>
+        <v>0.1094540870686273</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -34424,10 +34424,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833882</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.692344207065613E-11</v>
+        <v>-8.691540742872754E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,22 +34477,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343816</v>
+        <v>0.9526279482343817</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279813293725</v>
+        <v>0.9526279813293728</v>
       </c>
       <c r="Q3">
-        <v>8.313209709952376E-08</v>
+        <v>8.313214290065091E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.999999916859</v>
+        <v>179.9999999168591</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -34536,22 +34536,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656304</v>
+        <v>0.9526279338656309</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279956981213</v>
+        <v>0.952627995698122</v>
       </c>
       <c r="Q4">
-        <v>5.152361210745467E-07</v>
+        <v>5.152361621759211E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999994847549</v>
+        <v>179.9999994847551</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -34595,22 +34595,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906287</v>
+        <v>0.9526279368906294</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279926731219</v>
+        <v>0.9526279926731223</v>
       </c>
       <c r="Q5">
-        <v>4.242666813105824E-07</v>
+        <v>4.242667980030648E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -34654,22 +34654,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279323531278</v>
+        <v>0.9526279323531286</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279972106217</v>
+        <v>0.9526279972106219</v>
       </c>
       <c r="Q6">
-        <v>5.607205153172291E-07</v>
+        <v>5.607206620749418E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999994392703</v>
+        <v>179.9999994392705</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -34713,22 +34713,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718769</v>
+        <v>0.9526279285718777</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918715</v>
+        <v>0.9526280009918718</v>
       </c>
       <c r="Q7">
-        <v>6.744320546427133E-07</v>
+        <v>6.744322133540081E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999993255588</v>
+        <v>179.9999993255589</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -34772,22 +34772,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156268</v>
+        <v>0.9526279278156279</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481213</v>
+        <v>0.952628001748122</v>
       </c>
       <c r="Q8">
-        <v>6.971743643988781E-07</v>
+        <v>6.971745310479586E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999993028165</v>
+        <v>179.9999993028166</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -34831,22 +34831,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279263031264</v>
+        <v>0.9526279263031273</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606214</v>
+        <v>0.9526280032606218</v>
       </c>
       <c r="Q9">
-        <v>7.426589815076927E-07</v>
+        <v>7.426591402188794E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34890,22 +34890,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279247906262</v>
+        <v>0.9526279247906271</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280047731213</v>
+        <v>0.9526280047731216</v>
       </c>
       <c r="Q10">
-        <v>7.88143595449788E-07</v>
+        <v>7.881437541609099E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,22 +34949,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343761</v>
+        <v>0.952627924034377</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280055293714</v>
+        <v>0.9526280055293718</v>
       </c>
       <c r="Q11">
-        <v>8.108858999299019E-07</v>
+        <v>8.108860624962201E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991891049</v>
+        <v>179.999999189105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -35008,22 +35008,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656312</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981226</v>
+        <v>0.952627983598123</v>
       </c>
       <c r="Q12">
-        <v>1.513590059683538E-07</v>
+        <v>1.513590493907248E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -35067,22 +35067,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279459656309</v>
+        <v>0.9526279459656311</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981223</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q13">
-        <v>1.51358983260532E-07</v>
+        <v>1.5135905644186E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.999999848632</v>
+        <v>179.9999998486321</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -35126,22 +35126,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627943696881</v>
+        <v>0.9526279436968812</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668719</v>
+        <v>0.9526279858668725</v>
       </c>
       <c r="Q14">
-        <v>2.195859937277347E-07</v>
+        <v>2.195860252732811E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.999999780405</v>
+        <v>179.9999997804052</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -35185,22 +35185,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.95262794218438</v>
+        <v>0.9526279421843804</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.952627987379372</v>
+        <v>0.9526279873793726</v>
       </c>
       <c r="Q15">
-        <v>2.650705414263783E-07</v>
+        <v>2.650706295816143E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>179.9999997349204</v>
+        <v>179.9999997349206</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -35244,22 +35244,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218814</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279828418726</v>
+        <v>0.9526279828418729</v>
       </c>
       <c r="Q16">
-        <v>1.28616698680162E-07</v>
+        <v>1.286167421025546E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>179.9999998713743</v>
+        <v>179.9999998713744</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -35309,16 +35309,16 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418721</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q17">
-        <v>1.286166967112127E-07</v>
+        <v>1.28616757683097E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>179.9999998713743</v>
+        <v>179.9999998713744</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -35362,22 +35362,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156308</v>
+        <v>0.9526279399156311</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279896481216</v>
+        <v>0.9526279896481225</v>
       </c>
       <c r="Q18">
-        <v>3.332975885122843E-07</v>
+        <v>3.332976145535597E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999996666934</v>
+        <v>179.9999996666936</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -35421,22 +35421,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906307</v>
+        <v>0.952627936890631</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731215</v>
+        <v>0.9526279926731221</v>
       </c>
       <c r="Q19">
-        <v>4.242668641753503E-07</v>
+        <v>4.242668983379595E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995757242</v>
+        <v>179.9999995757243</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -35480,22 +35480,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218806</v>
+        <v>0.952627934621881</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279949418713</v>
+        <v>0.9526279949418721</v>
       </c>
       <c r="Q20">
-        <v>4.924938149791675E-07</v>
+        <v>4.924938519221065E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999995074972</v>
+        <v>179.9999995074974</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -35539,22 +35539,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656304</v>
+        <v>0.9526279338656309</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981213</v>
+        <v>0.952627995698122</v>
       </c>
       <c r="Q21">
-        <v>5.152361287849824E-07</v>
+        <v>5.15236158017464E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999994847549</v>
+        <v>179.9999994847551</v>
       </c>
     </row>
   </sheetData>
